--- a/SP_Sklad/TempLate/RepMatRest.xlsx
+++ b/SP_Sklad/TempLate/RepMatRest.xlsx
@@ -16,12 +16,12 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$7:$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>sum</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Код</t>
+  </si>
+  <si>
+    <t>sum_Total</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -107,14 +110,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="53"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color indexed="16"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
@@ -189,8 +184,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +217,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -483,71 +497,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -558,7 +543,56 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,49 +608,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -989,15 +981,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:M108"/>
+  <dimension ref="B1:M102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
@@ -1014,161 +1004,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="16"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="56" t="e">
+      <c r="D3" s="10"/>
+      <c r="E3" s="40" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="34" t="e">
+      <c r="D4" s="3"/>
+      <c r="E4" s="18" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="34" t="e">
+      <c r="D5" s="3"/>
+      <c r="E5" s="18" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="7" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="50" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="50" t="s">
+      <c r="M7" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="60" t="e">
+      <c r="B10" s="34" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="48"/>
     </row>
     <row r="11" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="e">
@@ -1183,145 +1173,98 @@
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="33" t="e">
+      <c r="H11" s="17" t="e">
         <f>MatList_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="I11" s="33" t="e">
+      <c r="I11" s="17" t="e">
         <f>MatList_REMAIN</f>
         <v>#NAME?</v>
       </c>
-      <c r="J11" s="33" t="e">
+      <c r="J11" s="17" t="e">
         <f>MatList_RSV</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="33" t="e">
+      <c r="K11" s="17" t="e">
         <f>I11-J11</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="41" t="e">
+      <c r="L11" s="24" t="e">
         <f>MatList_AVGPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="M11" s="40" t="e">
+      <c r="M11" s="23" t="e">
         <f>I11*L11</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="38" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J19" s="5"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1392,29 +1335,23 @@
     <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="D7:G8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B10:M10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/SP_Sklad/TempLate/RepMatRest.xlsx
+++ b/SP_Sklad/TempLate/RepMatRest.xlsx
@@ -16,7 +16,7 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$7:$8</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -566,12 +566,30 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -592,24 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,7 +981,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:M102"/>
+  <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1036,12 +1036,12 @@
         <v>8</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="40" t="e">
+      <c r="E3" s="46" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1086,16 +1086,16 @@
       <c r="M5" s="10"/>
     </row>
     <row r="7" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="32" t="s">
         <v>4</v>
       </c>
@@ -1116,12 +1116,12 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
@@ -1144,35 +1144,35 @@
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="e">
+      <c r="B10" s="39" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="48"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="43" t="e">
+      <c r="B11" s="34" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45" t="e">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36" t="e">
         <f>MatList_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="17" t="e">
         <f>MatList_MSRNAME</f>
         <v>#NAME?</v>
@@ -1247,103 +1247,8 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="D7:G8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="I7:I8"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="D2:J2"/>
@@ -1352,6 +1257,13 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="B10:M10"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="D7:G8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/SP_Sklad/TempLate/RepMatRest.xlsx
+++ b/SP_Sklad/TempLate/RepMatRest.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCFEFDE-47FF-4E68-BF94-69580A764367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="15" windowWidth="12495" windowHeight="6975"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$9:$M$13</definedName>
-    <definedName name="MatList">Лист1!$A$11:$M$12</definedName>
+    <definedName name="MatGroup">Лист1!$A$9:$L$13</definedName>
+    <definedName name="MatList">Лист1!$A$11:$L$12</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$7:$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -44,9 +61,6 @@
     <t>Ціна</t>
   </si>
   <si>
-    <t>Сума залишку</t>
-  </si>
-  <si>
     <t>Станом на:</t>
   </si>
   <si>
@@ -69,16 +83,18 @@
   </si>
   <si>
     <t>sum_Total</t>
+  </si>
+  <si>
+    <t>На суму</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
+    <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -506,16 +522,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,14 +541,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -540,76 +556,70 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="16" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,6 +699,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -736,7 +749,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,9 +782,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -804,6 +834,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -979,157 +1026,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:M14"/>
+  <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+    <row r="1" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="46" t="e">
+    <row r="3" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="42" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="18" t="e">
+    <row r="4" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="18" t="e">
         <f>XLRPARAMS_WH</f>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="18" t="e">
+    <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="18" t="e">
         <f>XLRPARAMS_GRP</f>
         <v>#NAME?</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
     </row>
-    <row r="7" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42" t="s">
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="H7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="32" t="s">
+      <c r="I7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="K7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="32" t="s">
-        <v>7</v>
+      <c r="L7" s="33" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+    <row r="8" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -1140,134 +1183,127 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="26"/>
+      <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="e">
+    <row r="10" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="34" t="e">
-        <f>MatList_BARCODE</f>
+    <row r="11" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="26" t="e">
+        <f>MatList_MatId</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="e">
+      <c r="C11" s="35" t="e">
         <f>MatList_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="17" t="e">
+      <c r="G11" s="17" t="e">
         <f>MatList_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="I11" s="17" t="e">
+      <c r="H11" s="17" t="e">
         <f>MatList_REMAIN</f>
         <v>#NAME?</v>
       </c>
-      <c r="J11" s="17" t="e">
+      <c r="I11" s="17" t="e">
         <f>MatList_RSV</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="17" t="e">
-        <f>I11-J11</f>
+      <c r="J11" s="17" t="e">
+        <f>H11-I11</f>
         <v>#NAME?</v>
       </c>
-      <c r="L11" s="24" t="e">
+      <c r="K11" s="30" t="e">
         <f>MatList_AVGPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="M11" s="23" t="e">
-        <f>I11*L11</f>
+      <c r="L11" s="23" t="e">
+        <f>H11*K11</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="15"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="21" t="s">
+      <c r="L12" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="27" t="s">
-        <v>15</v>
-      </c>
+    <row r="13" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="48"/>
     </row>
-    <row r="14" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
+  <mergeCells count="14">
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="D7:G8"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>